--- a/ЭКОНОМЕТРИКА/Лабы/Лаба1(TSLA).xlsx
+++ b/ЭКОНОМЕТРИКА/Лабы/Лаба1(TSLA).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Учеба\Учеба 3 курс 2 семестр\Studies\ЭКОНОМЕТРИКА\Лабы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE60E8B-F95E-461F-9349-04AF90A97A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190E0231-6918-4E87-8CA9-C6D8E3C31005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="690" windowWidth="15960" windowHeight="14355" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="17460" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -171,16 +171,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2913,8 +2913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B36" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P41" sqref="P41"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3208,10 +3208,10 @@
       <c r="C18">
         <v>234.3</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="3"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -3689,21 +3689,21 @@
       <c r="C44">
         <v>239.29</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -3715,19 +3715,19 @@
       <c r="C45">
         <v>251.05</v>
       </c>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -3739,19 +3739,19 @@
       <c r="C46">
         <v>253.5</v>
       </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -3763,19 +3763,19 @@
       <c r="C47">
         <v>253.5</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -3787,19 +3787,19 @@
       <c r="C48">
         <v>253.5</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -3811,19 +3811,19 @@
       <c r="C49">
         <v>252.08</v>
       </c>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -3835,19 +3835,19 @@
       <c r="C50">
         <v>257.22000000000003</v>
       </c>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="4"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -3859,19 +3859,19 @@
       <c r="C51">
         <v>247.14</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -3883,19 +3883,19 @@
       <c r="C52">
         <v>254.5</v>
       </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -3907,19 +3907,19 @@
       <c r="C53">
         <v>252.54</v>
       </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -3931,19 +3931,19 @@
       <c r="C54">
         <v>252.54</v>
       </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -3955,19 +3955,19 @@
       <c r="C55">
         <v>252.54</v>
       </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -3979,19 +3979,19 @@
       <c r="C56">
         <v>252.54</v>
       </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -4003,19 +4003,19 @@
       <c r="C57">
         <v>253.18</v>
       </c>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -4027,19 +4027,19 @@
       <c r="C58">
         <v>261.44</v>
       </c>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -4051,19 +4051,19 @@
       <c r="C59">
         <v>253.18</v>
       </c>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -4075,19 +4075,19 @@
       <c r="C60">
         <v>248.48</v>
       </c>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="3"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -4099,424 +4099,424 @@
       <c r="C61">
         <v>248.48</v>
       </c>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4"/>
-      <c r="K64" s="4"/>
-      <c r="L64" s="4"/>
-      <c r="M64" s="4"/>
-      <c r="N64" s="4"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="3"/>
+      <c r="P64" s="3"/>
+      <c r="Q64" s="3"/>
     </row>
     <row r="65" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="3"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
     </row>
     <row r="66" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="3"/>
+      <c r="P66" s="3"/>
+      <c r="Q66" s="3"/>
     </row>
     <row r="67" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
     </row>
     <row r="68" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
     </row>
     <row r="69" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-      <c r="J69" s="4"/>
-      <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
-      <c r="M69" s="4"/>
-      <c r="N69" s="4"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
     </row>
     <row r="70" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
     </row>
     <row r="71" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-      <c r="J71" s="4"/>
-      <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
     </row>
     <row r="72" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
     </row>
     <row r="73" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="G73" s="3"/>
+      <c r="H73" s="3"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
     </row>
     <row r="74" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
     </row>
     <row r="75" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
     </row>
     <row r="76" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="3"/>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3"/>
     </row>
     <row r="77" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="3"/>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3"/>
     </row>
     <row r="78" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3"/>
     </row>
     <row r="79" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
     </row>
     <row r="80" spans="5:17" x14ac:dyDescent="0.25">
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="3"/>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3"/>
     </row>
     <row r="81" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="3"/>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3"/>
     </row>
     <row r="82" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
     </row>
     <row r="83" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
     </row>
     <row r="84" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="6"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="3"/>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3"/>
     </row>
     <row r="85" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="3"/>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3"/>
     </row>
     <row r="86" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="3"/>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3"/>
     </row>
     <row r="87" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="6"/>
-      <c r="L87" s="6"/>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6"/>
-      <c r="O87" s="6"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="3"/>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3"/>
     </row>
     <row r="88" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="3"/>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3"/>
     </row>
     <row r="89" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="3"/>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3"/>
     </row>
     <row r="90" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
-      <c r="Q90" s="6"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
     </row>
     <row r="91" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="6"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="3"/>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3"/>
     </row>
     <row r="92" spans="9:17" x14ac:dyDescent="0.25">
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="6"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="3"/>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
